--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeTwoCoordination_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeTwoCoordination_19DX101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="电动机（分立元件）" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="电动机（分立元件星三角启动）" sheetId="2" r:id="rId3"/>
     <sheet name="电动机（CPS星三角启动）" sheetId="4" r:id="rId4"/>
     <sheet name="双速电动机（D-YY）" sheetId="6" r:id="rId5"/>
+    <sheet name="双速电动机（CPS）" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="219">
   <si>
     <t>断路器规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,12 +763,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CPSJ45-M40/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M4/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M16/3P</t>
+  </si>
+  <si>
+    <t>CPS32-M25/3P</t>
+  </si>
+  <si>
+    <t>CPS32-M32/3P</t>
+  </si>
+  <si>
+    <t>CPS45-M40/3P</t>
+  </si>
+  <si>
+    <t>CPS63-M50/3P</t>
+  </si>
+  <si>
+    <t>CPS63-M63/3P</t>
+  </si>
+  <si>
+    <t>CPS100-M80/3P</t>
+  </si>
+  <si>
+    <t>CPS100-M100/3P</t>
+  </si>
+  <si>
+    <t>CPS125-M125/3P</t>
+  </si>
+  <si>
+    <t>CPS160-M160/3P</t>
+  </si>
+  <si>
+    <t>CPS225-M225/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M2.5/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M4/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M6/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M12/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M16/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M25/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M32/3P</t>
+  </si>
+  <si>
+    <t>CPSD45-M40/3P</t>
+  </si>
+  <si>
+    <t>CPSD63-M50/3P</t>
+  </si>
+  <si>
+    <t>CPSD63-M63/3P</t>
+  </si>
+  <si>
+    <t>CPSD100-M80/3P</t>
+  </si>
+  <si>
+    <t>CPSD100-M100/3P</t>
+  </si>
+  <si>
+    <t>CPSD125-M125/3P</t>
+  </si>
+  <si>
+    <t>CPSD160-M160/3P</t>
+  </si>
+  <si>
+    <t>CPSD225-M225/3P</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1735,7 +1838,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G30:G31"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1774,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>183</v>
@@ -1791,7 +1894,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1809,7 +1912,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1827,7 +1930,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1845,7 +1948,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1863,7 +1966,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1881,7 +1984,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1899,7 +2002,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1917,7 +2020,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1935,7 +2038,7 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -1953,7 +2056,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>33</v>
@@ -1971,7 +2074,7 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -1989,7 +2092,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>35</v>
@@ -2007,7 +2110,7 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>35</v>
@@ -2025,7 +2128,7 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
@@ -2043,7 +2146,7 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>60</v>
@@ -2061,7 +2164,7 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>61</v>
@@ -2079,7 +2182,7 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>62</v>
@@ -2097,7 +2200,7 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>63</v>
@@ -2115,7 +2218,7 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>64</v>
@@ -2133,7 +2236,7 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>65</v>
@@ -2151,7 +2254,7 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
@@ -3091,7 +3194,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3452,7 +3555,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -3713,7 +3816,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4185,4 +4288,439 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>293</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>387</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>382</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>492</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>655</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1">
+        <v>745</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1">
+        <v>142</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1107</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <v>167</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1302</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1319</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeTwoCoordination_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeTwoCoordination_19DX101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="电动机（分立元件）" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="230">
   <si>
     <t>断路器规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,6 +871,50 @@
   </si>
   <si>
     <t>CPSD225-M225/3P</t>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1219,16 +1263,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +1318,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -1297,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1320,7 +1364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -1343,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1366,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -1389,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -1412,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1435,7 +1479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1458,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -1481,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -1504,7 +1548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1527,7 +1571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1550,7 +1594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -1573,7 +1617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1596,7 +1640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -1619,7 +1663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -1642,7 +1686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -1665,7 +1709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -1688,7 +1732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -1711,7 +1755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -1734,7 +1778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -1757,7 +1801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -1780,7 +1824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -1803,7 +1847,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -1841,15 +1885,15 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1866,7 +1910,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +1927,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -1901,7 +1945,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1919,7 +1963,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -1937,7 +1981,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1955,7 +1999,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -1973,7 +2017,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -1991,7 +2035,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2009,7 +2053,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2027,7 +2071,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -2045,7 +2089,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -2063,7 +2107,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2081,7 +2125,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2099,7 +2143,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -2117,7 +2161,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2135,7 +2179,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2153,7 +2197,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2171,7 +2215,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -2189,7 +2233,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -2207,7 +2251,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -2225,7 +2269,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -2243,7 +2287,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -2272,21 +2316,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2300,25 +2344,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -2382,7 +2426,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2414,7 +2458,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -2446,7 +2490,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2478,7 +2522,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -2510,7 +2554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2542,7 +2586,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2574,7 +2618,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2606,7 +2650,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -2638,7 +2682,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -2670,7 +2714,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2702,7 +2746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2734,7 +2778,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -2766,7 +2810,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2798,7 +2842,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2830,7 +2874,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2862,7 +2906,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -2894,7 +2938,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -2926,7 +2970,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -2958,7 +3002,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -2990,7 +3034,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -3022,7 +3066,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -3054,7 +3098,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -3086,7 +3130,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -3118,7 +3162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
@@ -3150,7 +3194,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>315</v>
       </c>
@@ -3194,19 +3238,19 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3220,19 +3264,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3258,7 +3302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -3284,7 +3328,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3310,7 +3354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -3336,7 +3380,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3362,7 +3406,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -3388,7 +3432,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -3414,7 +3458,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -3440,7 +3484,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -3466,7 +3510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -3492,7 +3536,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -3518,7 +3562,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3544,7 +3588,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -3570,7 +3614,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -3596,7 +3640,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -3622,7 +3666,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -3648,7 +3692,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -3674,7 +3718,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -3700,7 +3744,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -3726,7 +3770,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -3752,7 +3796,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -3778,7 +3822,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -3816,17 +3860,17 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3837,13 +3881,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3854,13 +3898,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -3878,7 +3922,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3896,7 +3940,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -3914,7 +3958,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3932,7 +3976,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -3950,7 +3994,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -3968,7 +4012,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -3986,7 +4030,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -4004,7 +4048,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -4022,7 +4066,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -4040,7 +4084,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4058,7 +4102,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4076,7 +4120,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -4094,7 +4138,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4112,7 +4156,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -4130,7 +4174,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -4148,7 +4192,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -4166,7 +4210,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -4184,7 +4228,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -4202,7 +4246,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -4220,7 +4264,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -4238,7 +4282,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -4253,7 +4297,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -4268,7 +4312,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -4286,7 +4330,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4294,19 +4338,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4317,13 +4361,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4340,7 +4384,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -4358,7 +4402,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -4376,7 +4420,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -4394,7 +4438,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4412,7 +4456,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -4430,7 +4474,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -4448,7 +4492,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -4466,7 +4510,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -4484,7 +4528,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -4502,7 +4546,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -4520,7 +4564,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4538,7 +4582,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4556,7 +4600,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -4574,7 +4618,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4592,7 +4636,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -4610,7 +4654,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -4628,7 +4672,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -4646,7 +4690,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -4664,7 +4708,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -4682,7 +4726,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -4700,7 +4744,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>

--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeTwoCoordination_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeTwoCoordination_19DX101.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07237D6E-7A9F-404D-8AB1-E042404CC46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电动机（分立元件）" sheetId="1" r:id="rId1"/>
     <sheet name="电动机（CPS）" sheetId="5" r:id="rId2"/>
     <sheet name="电动机（分立元件星三角启动）" sheetId="2" r:id="rId3"/>
     <sheet name="电动机（CPS星三角启动）" sheetId="4" r:id="rId4"/>
-    <sheet name="双速电动机（D-YY）" sheetId="6" r:id="rId5"/>
-    <sheet name="双速电动机（CPS）" sheetId="7" r:id="rId6"/>
+    <sheet name="双速电动机（分立元件D-YY）" sheetId="6" r:id="rId5"/>
+    <sheet name="双速电动机（分立元件Y-Y）" sheetId="8" r:id="rId6"/>
+    <sheet name="双速电动机（CPS）" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="253">
   <si>
     <t>断路器规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-110/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CJ20-150/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,26 +440,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-75/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-110/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-145/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CJ20-185/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-210/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CJ20-260/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,69 +536,425 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6x95+E70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x2.5</t>
-  </si>
-  <si>
-    <t>7x2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Conductor1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>母线槽500A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母线槽400A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母线槽630A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M4/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M16/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M25/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M32/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ63-M50/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ63-M63/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ100-M80/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ100-M100/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ125-M125/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ160-M160/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ225-M225/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>CPSJ45-M40/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M4/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M16/3P</t>
+  </si>
+  <si>
+    <t>CPS32-M25/3P</t>
+  </si>
+  <si>
+    <t>CPS32-M32/3P</t>
+  </si>
+  <si>
+    <t>CPS45-M40/3P</t>
+  </si>
+  <si>
+    <t>CPS63-M50/3P</t>
+  </si>
+  <si>
+    <t>CPS63-M63/3P</t>
+  </si>
+  <si>
+    <t>CPS100-M80/3P</t>
+  </si>
+  <si>
+    <t>CPS100-M100/3P</t>
+  </si>
+  <si>
+    <t>CPS125-M125/3P</t>
+  </si>
+  <si>
+    <t>CPS160-M160/3P</t>
+  </si>
+  <si>
+    <t>CPS225-M225/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M2.5/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M4/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M6/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M12/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M16/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M25/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M32/3P</t>
+  </si>
+  <si>
+    <t>CPSD45-M40/3P</t>
+  </si>
+  <si>
+    <t>CPSD63-M50/3P</t>
+  </si>
+  <si>
+    <t>CPSD63-M63/3P</t>
+  </si>
+  <si>
+    <t>CPSD100-M80/3P</t>
+  </si>
+  <si>
+    <t>CPSD100-M100/3P</t>
+  </si>
+  <si>
+    <t>CPSD125-M125/3P</t>
+  </si>
+  <si>
+    <t>CPSD160-M160/3P</t>
+  </si>
+  <si>
+    <t>CPSD225-M225/3P</t>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Conductor2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3x2.5</t>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6</t>
+  </si>
+  <si>
+    <t>3x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x16</t>
+  </si>
+  <si>
+    <t>3x16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25</t>
+  </si>
+  <si>
+    <t>3x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35</t>
+  </si>
+  <si>
+    <t>3x35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50</t>
+  </si>
+  <si>
+    <t>3x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50+E25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120+E70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x150+E95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x240+E120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>母线槽250A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,302 +963,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>母线槽400A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母线槽630A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x2.5</t>
-  </si>
-  <si>
-    <t>5x2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x25+2x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x35+2x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x50+2x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x70+2x35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x95+2x50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x120+2x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x70+2x35)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x120+2x70)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M2.5/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M4/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M6/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M12/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M16/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M25/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M32/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ63-M50/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ63-M63/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ100-M80/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ100-M100/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ125-M125/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ160-M160/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ225-M225/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conductor</t>
-  </si>
-  <si>
-    <t>CPSJ45-M40/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS32-M2.5/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS32-M2.5/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS32-M4/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS32-M6/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS32-M6/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS32-M12/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS32-M12/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS32-M16/3P</t>
-  </si>
-  <si>
-    <t>CPS32-M25/3P</t>
-  </si>
-  <si>
-    <t>CPS32-M32/3P</t>
-  </si>
-  <si>
-    <t>CPS45-M40/3P</t>
-  </si>
-  <si>
-    <t>CPS63-M50/3P</t>
-  </si>
-  <si>
-    <t>CPS63-M63/3P</t>
-  </si>
-  <si>
-    <t>CPS100-M80/3P</t>
-  </si>
-  <si>
-    <t>CPS100-M100/3P</t>
-  </si>
-  <si>
-    <t>CPS125-M125/3P</t>
-  </si>
-  <si>
-    <t>CPS160-M160/3P</t>
-  </si>
-  <si>
-    <t>CPS225-M225/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M2.5/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M4/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M6/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M12/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M16/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M25/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M32/3P</t>
-  </si>
-  <si>
-    <t>CPSD45-M40/3P</t>
-  </si>
-  <si>
-    <t>CPSD63-M50/3P</t>
-  </si>
-  <si>
-    <t>CPSD63-M63/3P</t>
-  </si>
-  <si>
-    <t>CPSD100-M80/3P</t>
-  </si>
-  <si>
-    <t>CPSD100-M100/3P</t>
-  </si>
-  <si>
-    <t>CPSD125-M125/3P</t>
-  </si>
-  <si>
-    <t>CPSD160-M160/3P</t>
-  </si>
-  <si>
-    <t>CPSD225-M225/3P</t>
-  </si>
-  <si>
-    <t>接触器规格1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS规格</t>
+    <t>Conductor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10+E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70+E35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-115/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1256,11 +1346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,7 +1405,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,7 +1419,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1352,7 +1442,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1375,7 +1465,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1398,7 +1488,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1421,7 +1511,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1444,7 +1534,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -1467,7 +1557,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -1490,7 +1580,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -1513,7 +1603,7 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -1536,7 +1626,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -1559,7 +1649,7 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -1582,7 +1672,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -1605,7 +1695,7 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
@@ -1628,7 +1718,7 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -1651,16 +1741,16 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1674,16 +1764,16 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1697,16 +1787,16 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1720,16 +1810,16 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1743,16 +1833,16 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1766,16 +1856,16 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1789,16 +1879,16 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,16 +1902,16 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,16 +1925,16 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1858,16 +1948,16 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1878,11 +1968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1904,10 +1994,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1921,10 +2011,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1938,7 +2028,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1956,7 +2046,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1974,7 +2064,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1992,7 +2082,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -2010,7 +2100,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -2028,7 +2118,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -2046,7 +2136,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -2064,7 +2154,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -2082,7 +2172,7 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -2100,7 +2190,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>33</v>
@@ -2118,7 +2208,7 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -2136,7 +2226,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>35</v>
@@ -2154,7 +2244,7 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>35</v>
@@ -2172,7 +2262,7 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
@@ -2190,10 +2280,10 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -2208,10 +2298,10 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -2226,10 +2316,10 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -2244,10 +2334,10 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -2262,10 +2352,10 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -2280,10 +2370,10 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -2298,10 +2388,10 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -2313,11 +2403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2344,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2376,22 +2466,22 @@
         <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2405,7 +2495,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -2420,10 +2510,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2437,7 +2527,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -2452,10 +2542,10 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2469,7 +2559,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -2484,10 +2574,10 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2501,7 +2591,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -2516,10 +2606,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2533,7 +2623,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -2548,10 +2638,10 @@
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2565,7 +2655,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -2580,10 +2670,10 @@
         <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2597,7 +2687,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -2612,10 +2702,10 @@
         <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2629,7 +2719,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -2644,10 +2734,10 @@
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2661,13 +2751,13 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -2676,10 +2766,10 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2693,25 +2783,25 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2725,25 +2815,25 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2757,7 +2847,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -2766,16 +2856,16 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,25 +2879,25 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2821,25 +2911,25 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2853,25 +2943,25 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2885,25 +2975,25 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2917,25 +3007,25 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2949,25 +3039,25 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2981,25 +3071,25 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3013,25 +3103,25 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3045,25 +3135,25 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3077,25 +3167,25 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3109,25 +3199,25 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3141,25 +3231,25 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3173,25 +3263,25 @@
         <v>2784</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3205,25 +3295,25 @@
         <v>3906</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3234,11 +3324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3261,19 +3351,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3287,19 +3377,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3313,7 +3403,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -3322,10 +3412,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3339,7 +3429,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -3348,10 +3438,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3365,7 +3455,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -3374,10 +3464,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3391,7 +3481,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -3400,10 +3490,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3417,7 +3507,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -3426,10 +3516,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3443,7 +3533,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -3452,10 +3542,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3469,7 +3559,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -3478,10 +3568,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3495,7 +3585,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -3504,10 +3594,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3521,19 +3611,19 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,19 +3637,19 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3573,19 +3663,19 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3599,19 +3689,19 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3625,19 +3715,19 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3651,19 +3741,19 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3677,19 +3767,19 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3703,19 +3793,19 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3729,19 +3819,19 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3755,19 +3845,19 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3781,19 +3871,19 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3807,19 +3897,19 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3833,19 +3923,19 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3856,18 +3946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3881,10 +3972,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3898,10 +3992,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>221</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3918,7 +4015,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -3936,7 +4036,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -3951,10 +4054,13 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -3972,7 +4078,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -3987,10 +4096,13 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -4005,10 +4117,13 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -4023,10 +4138,13 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -4041,10 +4159,13 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -4059,10 +4180,13 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -4077,10 +4201,13 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -4095,10 +4222,13 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -4113,10 +4243,13 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -4131,10 +4264,13 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -4149,10 +4285,13 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4167,10 +4306,13 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -4185,10 +4327,13 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -4203,10 +4348,13 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -4221,10 +4369,13 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -4239,10 +4390,13 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -4257,10 +4411,13 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -4278,7 +4435,10 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -4292,8 +4452,14 @@
       <c r="C24" s="1">
         <v>1549</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -4307,8 +4473,14 @@
       <c r="C25" s="1">
         <v>1960</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -4322,8 +4494,14 @@
       <c r="C26" s="1">
         <v>2342</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -4335,18 +4513,508 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>293</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>387</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>382</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>492</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>655</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1">
+        <v>745</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1">
+        <v>142</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1107</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <v>167</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1302</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1319</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>132</v>
+      </c>
+      <c r="B24" s="1">
+        <v>242</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1549</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>160</v>
+      </c>
+      <c r="B25" s="1">
+        <v>297</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1960</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>200</v>
+      </c>
+      <c r="B26" s="1">
+        <v>366</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2342</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4361,10 +5029,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4378,10 +5052,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4395,9 +5075,15 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1"/>
@@ -4413,9 +5099,15 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1"/>
@@ -4431,9 +5123,15 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="1"/>
@@ -4449,9 +5147,15 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="1"/>
@@ -4467,9 +5171,15 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="1"/>
@@ -4485,9 +5195,15 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1"/>
@@ -4503,9 +5219,15 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="1"/>
@@ -4521,9 +5243,15 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="1"/>
@@ -4539,9 +5267,15 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="1"/>
@@ -4557,9 +5291,15 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I12" s="1"/>
@@ -4575,9 +5315,15 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="1"/>
@@ -4593,9 +5339,15 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="1"/>
@@ -4611,9 +5363,15 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="1"/>
@@ -4629,9 +5387,15 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="1"/>
@@ -4647,10 +5411,16 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -4665,10 +5435,16 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -4683,10 +5459,16 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -4701,10 +5483,16 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -4719,10 +5507,16 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>252</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -4737,10 +5531,16 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -4755,16 +5555,31 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeTwoCoordination_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeTwoCoordination_19DX101.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07237D6E-7A9F-404D-8AB1-E042404CC46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="电动机（分立元件）" sheetId="1" r:id="rId1"/>
@@ -152,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JR20-63 33/47A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JR20-63 40/55A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1004,13 +999,17 @@
   </si>
   <si>
     <t>CJ20-115/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 33/47A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1346,23 +1345,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1382,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1396,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1431,7 +1430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1454,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1477,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1500,7 +1499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1523,7 +1522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -1546,7 +1545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -1569,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -1592,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -1615,7 +1614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -1635,10 +1634,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -1658,10 +1657,10 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -1681,10 +1680,10 @@
         <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -1695,19 +1694,19 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1718,19 +1717,19 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -1741,19 +1740,19 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -1764,19 +1763,19 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -1787,19 +1786,19 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -1810,19 +1809,19 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -1833,19 +1832,19 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -1856,19 +1855,19 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -1879,19 +1878,19 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -1902,19 +1901,19 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -1925,19 +1924,19 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -1948,16 +1947,16 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1968,22 +1967,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1994,13 +1993,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2011,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -2028,14 +2027,14 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2046,14 +2045,14 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -2064,14 +2063,14 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2082,14 +2081,14 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -2100,14 +2099,14 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2118,14 +2117,14 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2136,14 +2135,14 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2154,14 +2153,14 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -2172,14 +2171,14 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -2190,14 +2189,14 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2208,14 +2207,14 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2226,14 +2225,14 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -2244,14 +2243,14 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2262,14 +2261,14 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2280,14 +2279,14 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2298,14 +2297,14 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -2316,14 +2315,14 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -2334,14 +2333,14 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -2352,14 +2351,14 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -2370,14 +2369,14 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -2388,10 +2387,10 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -2403,24 +2402,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2434,25 +2433,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2463,28 +2462,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -2510,13 +2509,13 @@
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -2542,13 +2541,13 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -2577,10 +2576,10 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -2609,10 +2608,10 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -2641,10 +2640,10 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -2670,13 +2669,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -2705,10 +2704,10 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -2737,10 +2736,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -2751,13 +2750,13 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -2766,13 +2765,13 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -2783,28 +2782,28 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2815,28 +2814,28 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -2856,19 +2855,19 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -2879,28 +2878,28 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2911,28 +2910,28 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2943,28 +2942,28 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2975,28 +2974,28 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -3007,28 +3006,28 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -3039,28 +3038,28 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -3071,28 +3070,28 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -3103,28 +3102,28 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -3135,28 +3134,28 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -3167,28 +3166,28 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -3199,28 +3198,28 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -3231,28 +3230,28 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>250</v>
       </c>
@@ -3263,28 +3262,28 @@
         <v>2784</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>315</v>
       </c>
@@ -3295,25 +3294,25 @@
         <v>3906</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3324,23 +3323,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3351,22 +3350,22 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3377,22 +3376,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -3412,13 +3411,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -3438,13 +3437,13 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -3467,10 +3466,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -3493,10 +3492,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -3519,10 +3518,10 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -3545,10 +3544,10 @@
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -3571,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -3597,10 +3596,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -3611,22 +3610,22 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -3637,22 +3636,22 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3663,22 +3662,22 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -3689,22 +3688,22 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -3715,22 +3714,22 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -3741,22 +3740,22 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -3767,22 +3766,22 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -3793,22 +3792,22 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -3819,22 +3818,22 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -3845,22 +3844,22 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -3871,22 +3870,22 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -3897,22 +3896,22 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -3923,19 +3922,19 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3946,22 +3945,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3972,16 +3971,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3992,16 +3991,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -4018,11 +4017,11 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -4039,11 +4038,11 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -4060,11 +4059,11 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4081,11 +4080,11 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -4102,11 +4101,11 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -4117,17 +4116,17 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -4144,11 +4143,11 @@
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -4165,11 +4164,11 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -4186,11 +4185,11 @@
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -4204,14 +4203,14 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4225,14 +4224,14 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4246,14 +4245,14 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -4267,14 +4266,14 @@
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4288,14 +4287,14 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -4309,14 +4308,14 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -4330,14 +4329,14 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -4351,14 +4350,14 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -4369,17 +4368,17 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -4390,17 +4389,17 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -4411,17 +4410,17 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -4432,17 +4431,17 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -4453,17 +4452,17 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -4474,17 +4473,17 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -4495,13 +4494,13 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -4513,21 +4512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4538,13 +4537,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4555,13 +4554,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -4575,11 +4574,11 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -4593,11 +4592,11 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -4611,11 +4610,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4629,11 +4628,11 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -4647,11 +4646,11 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -4665,11 +4664,11 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -4683,11 +4682,11 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -4701,11 +4700,11 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -4719,11 +4718,11 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -4734,14 +4733,14 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4752,14 +4751,14 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4770,14 +4769,14 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -4788,14 +4787,14 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4806,14 +4805,14 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -4824,14 +4823,14 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -4842,14 +4841,14 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -4860,14 +4859,14 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -4878,14 +4877,14 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -4896,14 +4895,14 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -4914,14 +4913,14 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -4932,14 +4931,14 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -4950,14 +4949,14 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -4968,14 +4967,14 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -4986,10 +4985,10 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -5001,24 +5000,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5029,19 +5028,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5052,19 +5051,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -5088,7 +5087,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -5112,7 +5111,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -5136,7 +5135,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5160,7 +5159,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -5184,7 +5183,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -5195,10 +5194,10 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -5208,7 +5207,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -5232,7 +5231,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -5256,7 +5255,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -5280,7 +5279,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -5291,20 +5290,20 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5315,20 +5314,20 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -5339,20 +5338,20 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -5363,20 +5362,20 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -5387,20 +5386,20 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -5411,20 +5410,20 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -5435,20 +5434,20 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -5459,20 +5458,20 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -5483,20 +5482,20 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -5507,20 +5506,20 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -5531,20 +5530,20 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -5555,26 +5554,26 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E26" s="1"/>
     </row>
   </sheetData>
